--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.740393</v>
+        <v>17.684051</v>
       </c>
       <c r="N2">
-        <v>47.221179</v>
+        <v>53.052153</v>
       </c>
       <c r="O2">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P2">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q2">
-        <v>743.8383687865941</v>
+        <v>1225.850492865152</v>
       </c>
       <c r="R2">
-        <v>6694.545319079347</v>
+        <v>11032.65443578637</v>
       </c>
       <c r="S2">
-        <v>0.1789043882477679</v>
+        <v>0.2082869064487131</v>
       </c>
       <c r="T2">
-        <v>0.1789043882477679</v>
+        <v>0.2082869064487131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>101.466729</v>
       </c>
       <c r="O3">
-        <v>0.6118725911752718</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P3">
-        <v>0.6118725911752717</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q3">
-        <v>1598.326170243894</v>
+        <v>2344.542732395136</v>
       </c>
       <c r="R3">
-        <v>14384.93553219505</v>
+        <v>21100.88459155622</v>
       </c>
       <c r="S3">
-        <v>0.3844216401129469</v>
+        <v>0.3983663224917548</v>
       </c>
       <c r="T3">
-        <v>0.3844216401129468</v>
+        <v>0.3983663224917547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.713974666666666</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N4">
-        <v>17.141924</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O4">
-        <v>0.1033705684511578</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P4">
-        <v>0.1033705684511578</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q4">
-        <v>270.0233466433307</v>
+        <v>2.299491285461333</v>
       </c>
       <c r="R4">
-        <v>2430.210119789976</v>
+        <v>20.695421569152</v>
       </c>
       <c r="S4">
-        <v>0.06494470260070656</v>
+        <v>0.0003907115337817972</v>
       </c>
       <c r="T4">
-        <v>0.06494470260070655</v>
+        <v>0.0003907115337817972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.28572166666667</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>33.85716499999999</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.1500421083721963</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.1500421083721963</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.740393</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N5">
-        <v>47.221179</v>
+        <v>16.591729</v>
       </c>
       <c r="O5">
-        <v>0.2847568403735705</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P5">
-        <v>0.2847568403735705</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q5">
-        <v>177.6416943219483</v>
+        <v>383.3770737284693</v>
       </c>
       <c r="R5">
-        <v>1598.775248897535</v>
+        <v>3450.393663556225</v>
       </c>
       <c r="S5">
-        <v>0.04272551670305545</v>
+        <v>0.06514042711980793</v>
       </c>
       <c r="T5">
-        <v>0.04272551670305545</v>
+        <v>0.06514042711980793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I6">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J6">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.82224299999999</v>
+        <v>17.684051</v>
       </c>
       <c r="N6">
-        <v>101.466729</v>
+        <v>53.052153</v>
       </c>
       <c r="O6">
-        <v>0.6118725911752718</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P6">
-        <v>0.6118725911752717</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q6">
-        <v>381.7084206403649</v>
+        <v>199.5772775251383</v>
       </c>
       <c r="R6">
-        <v>3435.375785763284</v>
+        <v>1796.195497726245</v>
       </c>
       <c r="S6">
-        <v>0.09180665363509667</v>
+        <v>0.03391060653408744</v>
       </c>
       <c r="T6">
-        <v>0.09180665363509664</v>
+        <v>0.03391060653408743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,95 +868,95 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.713974666666666</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N7">
-        <v>17.141924</v>
+        <v>101.466729</v>
       </c>
       <c r="O7">
-        <v>0.1033705684511578</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P7">
-        <v>0.1033705684511578</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q7">
-        <v>64.48632769838443</v>
+        <v>381.7084206403649</v>
       </c>
       <c r="R7">
-        <v>580.3769492854599</v>
+        <v>3435.375785763284</v>
       </c>
       <c r="S7">
-        <v>0.01550993803404415</v>
+        <v>0.06485690266745402</v>
       </c>
       <c r="T7">
-        <v>0.01550993803404415</v>
+        <v>0.06485690266745399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.240457</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H8">
-        <v>0.721371</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.003196842551895872</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.003196842551895872</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>15.740393</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N8">
-        <v>47.221179</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O8">
-        <v>0.2847568403735705</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P8">
-        <v>0.2847568403735705</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q8">
-        <v>3.784887679601</v>
+        <v>0.3743737210338888</v>
       </c>
       <c r="R8">
-        <v>34.063989116409</v>
+        <v>3.369363489305</v>
       </c>
       <c r="S8">
-        <v>0.0009103227842496503</v>
+        <v>6.361064800617572E-05</v>
       </c>
       <c r="T8">
-        <v>0.0009103227842496504</v>
+        <v>6.361064800617569E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.240457</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H9">
-        <v>0.721371</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.003196842551895872</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.003196842551895872</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.82224299999999</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N9">
-        <v>101.466729</v>
+        <v>16.591729</v>
       </c>
       <c r="O9">
-        <v>0.6118725911752718</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P9">
-        <v>0.6118725911752717</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q9">
-        <v>8.132795085050999</v>
+        <v>62.41654515425388</v>
       </c>
       <c r="R9">
-        <v>73.19515576545899</v>
+        <v>561.7489063882849</v>
       </c>
       <c r="S9">
-        <v>0.001956060335807895</v>
+        <v>0.01060533007659855</v>
       </c>
       <c r="T9">
-        <v>0.001956060335807895</v>
+        <v>0.01060533007659855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H10">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I10">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J10">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.713974666666666</v>
+        <v>17.684051</v>
       </c>
       <c r="N10">
-        <v>17.141924</v>
+        <v>53.052153</v>
       </c>
       <c r="O10">
-        <v>0.1033705684511578</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P10">
-        <v>0.1033705684511578</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q10">
-        <v>1.373965206422667</v>
+        <v>0.6181577920723333</v>
       </c>
       <c r="R10">
-        <v>12.365686857804</v>
+        <v>5.563420128651001</v>
       </c>
       <c r="S10">
-        <v>0.0003304594318383263</v>
+        <v>0.0001050325263621496</v>
       </c>
       <c r="T10">
-        <v>0.0003304594318383263</v>
+        <v>0.0001050325263621496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>16.24228466666667</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H11">
-        <v>48.726854</v>
+        <v>0.104867</v>
       </c>
       <c r="I11">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J11">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.740393</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N11">
-        <v>47.221179</v>
+        <v>101.466729</v>
       </c>
       <c r="O11">
-        <v>0.2847568403735705</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P11">
-        <v>0.2847568403735705</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q11">
-        <v>255.6599438712073</v>
+        <v>1.182279052227</v>
       </c>
       <c r="R11">
-        <v>2300.939494840866</v>
+        <v>10.640511470043</v>
       </c>
       <c r="S11">
-        <v>0.06149008679445973</v>
+        <v>0.0002008835888069158</v>
       </c>
       <c r="T11">
-        <v>0.06149008679445974</v>
+        <v>0.0002008835888069157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>16.24228466666667</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>48.726854</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>33.82224299999999</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N12">
-        <v>101.466729</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O12">
-        <v>0.6118725911752718</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P12">
-        <v>0.6118725911752717</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q12">
-        <v>549.3504988711738</v>
+        <v>0.001159561026555556</v>
       </c>
       <c r="R12">
-        <v>4944.154489840565</v>
+        <v>0.010436049239</v>
       </c>
       <c r="S12">
-        <v>0.132127111289617</v>
+        <v>1.970235199687756E-07</v>
       </c>
       <c r="T12">
-        <v>0.132127111289617</v>
+        <v>1.970235199687755E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>16.24228466666667</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>48.726854</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.2159389278016687</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.713974666666666</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N13">
-        <v>17.141924</v>
+        <v>16.591729</v>
       </c>
       <c r="O13">
-        <v>0.1033705684511578</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P13">
-        <v>0.1033705684511578</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q13">
-        <v>92.80800311412177</v>
+        <v>0.1933249827825556</v>
       </c>
       <c r="R13">
-        <v>835.272028027096</v>
+        <v>1.739924845043</v>
       </c>
       <c r="S13">
-        <v>0.02232172971759202</v>
+        <v>3.28482656224365E-05</v>
       </c>
       <c r="T13">
-        <v>0.02232172971759202</v>
+        <v>3.28482656224365E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.191908</v>
+        <v>22.33376</v>
       </c>
       <c r="H14">
-        <v>0.575724</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I14">
-        <v>0.002551390312817813</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J14">
-        <v>0.002551390312817813</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.740393</v>
+        <v>17.684051</v>
       </c>
       <c r="N14">
-        <v>47.221179</v>
+        <v>53.052153</v>
       </c>
       <c r="O14">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P14">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q14">
-        <v>3.020707339844</v>
+        <v>394.95135086176</v>
       </c>
       <c r="R14">
-        <v>27.186366058596</v>
+        <v>3554.562157755841</v>
       </c>
       <c r="S14">
-        <v>0.000726525844037736</v>
+        <v>0.06710703756088918</v>
       </c>
       <c r="T14">
-        <v>0.0007265258440377361</v>
+        <v>0.06710703756088916</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.191908</v>
+        <v>22.33376</v>
       </c>
       <c r="H15">
-        <v>0.575724</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I15">
-        <v>0.002551390312817813</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J15">
-        <v>0.002551390312817813</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>101.466729</v>
       </c>
       <c r="O15">
-        <v>0.6118725911752718</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P15">
-        <v>0.6118725911752717</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q15">
-        <v>6.490759009643998</v>
+        <v>755.3778578236798</v>
       </c>
       <c r="R15">
-        <v>58.41683108679599</v>
+        <v>6798.40072041312</v>
       </c>
       <c r="S15">
-        <v>0.001561125801803323</v>
+        <v>0.1283478842825391</v>
       </c>
       <c r="T15">
-        <v>0.001561125801803323</v>
+        <v>0.1283478842825391</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.33376</v>
+      </c>
+      <c r="H16">
+        <v>67.00128000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2165681096957675</v>
+      </c>
+      <c r="J16">
+        <v>0.2165681096957675</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03317233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.09951699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="P16">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="Q16">
+        <v>0.7408629313066667</v>
+      </c>
+      <c r="R16">
+        <v>6.667766381760001</v>
+      </c>
+      <c r="S16">
+        <v>0.000125881621749583</v>
+      </c>
+      <c r="T16">
+        <v>0.000125881621749583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22.33376</v>
+      </c>
+      <c r="H17">
+        <v>67.00128000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2165681096957675</v>
+      </c>
+      <c r="J17">
+        <v>0.2165681096957675</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.530576333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.591729</v>
+      </c>
+      <c r="O17">
+        <v>0.09690857190411072</v>
+      </c>
+      <c r="P17">
+        <v>0.09690857190411073</v>
+      </c>
+      <c r="Q17">
+        <v>123.5185644903467</v>
+      </c>
+      <c r="R17">
+        <v>1111.66708041312</v>
+      </c>
+      <c r="S17">
+        <v>0.02098730623058962</v>
+      </c>
+      <c r="T17">
+        <v>0.02098730623058962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1518126666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.455438</v>
+      </c>
+      <c r="I18">
+        <v>0.001472111379717238</v>
+      </c>
+      <c r="J18">
+        <v>0.001472111379717237</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.684051</v>
+      </c>
+      <c r="N18">
+        <v>53.052153</v>
+      </c>
+      <c r="O18">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="P18">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="Q18">
+        <v>2.684662939779334</v>
+      </c>
+      <c r="R18">
+        <v>24.161966458014</v>
+      </c>
+      <c r="S18">
+        <v>0.0004561568819678705</v>
+      </c>
+      <c r="T18">
+        <v>0.0004561568819678704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1518126666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.455438</v>
+      </c>
+      <c r="I19">
+        <v>0.001472111379717238</v>
+      </c>
+      <c r="J19">
+        <v>0.001472111379717237</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.82224299999999</v>
+      </c>
+      <c r="N19">
+        <v>101.466729</v>
+      </c>
+      <c r="O19">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="P19">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="Q19">
+        <v>5.134644902478</v>
+      </c>
+      <c r="R19">
+        <v>46.21180412230199</v>
+      </c>
+      <c r="S19">
+        <v>0.0008724386119469816</v>
+      </c>
+      <c r="T19">
+        <v>0.0008724386119469813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1518126666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.455438</v>
+      </c>
+      <c r="I20">
+        <v>0.001472111379717238</v>
+      </c>
+      <c r="J20">
+        <v>0.001472111379717237</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03317233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.09951699999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="P20">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="Q20">
+        <v>0.005035980382888889</v>
+      </c>
+      <c r="R20">
+        <v>0.045323823446</v>
+      </c>
+      <c r="S20">
+        <v>8.556743101980529E-07</v>
+      </c>
+      <c r="T20">
+        <v>8.556743101980526E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.191908</v>
-      </c>
-      <c r="H16">
-        <v>0.575724</v>
-      </c>
-      <c r="I16">
-        <v>0.002551390312817813</v>
-      </c>
-      <c r="J16">
-        <v>0.002551390312817813</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.713974666666666</v>
-      </c>
-      <c r="N16">
-        <v>17.141924</v>
-      </c>
-      <c r="O16">
-        <v>0.1033705684511578</v>
-      </c>
-      <c r="P16">
-        <v>0.1033705684511578</v>
-      </c>
-      <c r="Q16">
-        <v>1.096557450330667</v>
-      </c>
-      <c r="R16">
-        <v>9.869017052976</v>
-      </c>
-      <c r="S16">
-        <v>0.0002637386669767547</v>
-      </c>
-      <c r="T16">
-        <v>0.0002637386669767548</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1518126666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.455438</v>
+      </c>
+      <c r="I21">
+        <v>0.001472111379717238</v>
+      </c>
+      <c r="J21">
+        <v>0.001472111379717237</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.530576333333333</v>
+      </c>
+      <c r="N21">
+        <v>16.591729</v>
+      </c>
+      <c r="O21">
+        <v>0.09690857190411072</v>
+      </c>
+      <c r="P21">
+        <v>0.09690857190411073</v>
+      </c>
+      <c r="Q21">
+        <v>0.839611541366889</v>
+      </c>
+      <c r="R21">
+        <v>7.556503872302001</v>
+      </c>
+      <c r="S21">
+        <v>0.0001426602114921876</v>
+      </c>
+      <c r="T21">
+        <v>0.0001426602114921876</v>
       </c>
     </row>
   </sheetData>
